--- a/Analysis/server0s5p/client0.1s/csr600d0.5.xlsx
+++ b/Analysis/server0s5p/client0.1s/csr600d0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Topology</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Graph: Latency between each device</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -9297,11 +9300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78237056"/>
-        <c:axId val="78247040"/>
+        <c:axId val="140281728"/>
+        <c:axId val="140812672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78237056"/>
+        <c:axId val="140281728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9311,7 +9314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78247040"/>
+        <c:crossAx val="140812672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9319,7 +9322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78247040"/>
+        <c:axId val="140812672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9330,7 +9333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78237056"/>
+        <c:crossAx val="140281728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9678,8 +9681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:TY104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34702,6 +34705,13 @@
       <c r="A82" t="s">
         <v>24</v>
       </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(83:85)</f>
+        <v>1098.8365885416667</v>
+      </c>
     </row>
     <row r="83" spans="1:513" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -56038,7 +56048,7 @@
         <v>492</v>
       </c>
       <c r="EO97">
-        <f t="shared" ref="EO97:FF97" si="1698">FREQUENCY($B88:$SS88, EO$96)</f>
+        <f t="shared" ref="EO97:ET97" si="1698">FREQUENCY($B88:$SS88, EO$96)</f>
         <v>492</v>
       </c>
       <c r="EP97">
@@ -56318,7 +56328,7 @@
         <v>502</v>
       </c>
       <c r="HG97">
-        <f t="shared" ref="HG97:JR97" si="1702">FREQUENCY($B88:$SS88, HG$96)</f>
+        <f t="shared" ref="HG97:IL97" si="1702">FREQUENCY($B88:$SS88, HG$96)</f>
         <v>502</v>
       </c>
       <c r="HH97">
@@ -56971,7 +56981,7 @@
         <v>492</v>
       </c>
       <c r="EC98">
-        <f t="shared" ref="EC98:FF98" si="1706">FREQUENCY($B89:$SS89, EC$96)</f>
+        <f t="shared" ref="EC98:ET98" si="1706">FREQUENCY($B89:$SS89, EC$96)</f>
         <v>492</v>
       </c>
       <c r="ED98">
@@ -57299,7 +57309,7 @@
         <v>502</v>
       </c>
       <c r="HG98">
-        <f t="shared" ref="HG98:JR98" si="1710">FREQUENCY($B89:$SS89, HG$96)</f>
+        <f t="shared" ref="HG98:IL98" si="1710">FREQUENCY($B89:$SS89, HG$96)</f>
         <v>502</v>
       </c>
       <c r="HH98">
@@ -57952,7 +57962,7 @@
         <v>512</v>
       </c>
       <c r="EC99">
-        <f t="shared" ref="EC99:FF99" si="1713">FREQUENCY($B90:$SS90, EC$96)</f>
+        <f t="shared" ref="EC99:ET99" si="1713">FREQUENCY($B90:$SS90, EC$96)</f>
         <v>512</v>
       </c>
       <c r="ED99">
@@ -58280,7 +58290,7 @@
         <v>512</v>
       </c>
       <c r="HG99">
-        <f t="shared" ref="HG99:JR99" si="1717">FREQUENCY($B90:$SS90, HG$96)</f>
+        <f t="shared" ref="HG99:IL99" si="1717">FREQUENCY($B90:$SS90, HG$96)</f>
         <v>512</v>
       </c>
       <c r="HH99">
@@ -58933,7 +58943,7 @@
         <v>511</v>
       </c>
       <c r="EC100">
-        <f t="shared" ref="EC100:FF100" si="1720">FREQUENCY($B91:$SS91, EC$96)</f>
+        <f t="shared" ref="EC100:ET100" si="1720">FREQUENCY($B91:$SS91, EC$96)</f>
         <v>511</v>
       </c>
       <c r="ED100">
@@ -59261,7 +59271,7 @@
         <v>512</v>
       </c>
       <c r="HG100">
-        <f t="shared" ref="HG100:JR100" si="1724">FREQUENCY($B91:$SS91, HG$96)</f>
+        <f t="shared" ref="HG100:IL100" si="1724">FREQUENCY($B91:$SS91, HG$96)</f>
         <v>512</v>
       </c>
       <c r="HH100">
@@ -59914,7 +59924,7 @@
         <v>506</v>
       </c>
       <c r="EC101">
-        <f t="shared" ref="EC101:FF101" si="1727">FREQUENCY($B92:$SS92, EC$96)</f>
+        <f t="shared" ref="EC101:ET101" si="1727">FREQUENCY($B92:$SS92, EC$96)</f>
         <v>507</v>
       </c>
       <c r="ED101">
@@ -60242,7 +60252,7 @@
         <v>512</v>
       </c>
       <c r="HG101">
-        <f t="shared" ref="HG101:JR101" si="1731">FREQUENCY($B92:$SS92, HG$96)</f>
+        <f t="shared" ref="HG101:IL101" si="1731">FREQUENCY($B92:$SS92, HG$96)</f>
         <v>512</v>
       </c>
       <c r="HH101">
@@ -60895,7 +60905,7 @@
         <v>512</v>
       </c>
       <c r="EC102">
-        <f t="shared" ref="EC102:FF102" si="1734">FREQUENCY($B93:$SS93, EC$96)</f>
+        <f t="shared" ref="EC102:ET102" si="1734">FREQUENCY($B93:$SS93, EC$96)</f>
         <v>512</v>
       </c>
       <c r="ED102">
@@ -61223,7 +61233,7 @@
         <v>512</v>
       </c>
       <c r="HG102">
-        <f t="shared" ref="HG102:JR102" si="1738">FREQUENCY($B93:$SS93, HG$96)</f>
+        <f t="shared" ref="HG102:IL102" si="1738">FREQUENCY($B93:$SS93, HG$96)</f>
         <v>512</v>
       </c>
       <c r="HH102">
